--- a/data/reword.xlsx
+++ b/data/reword.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Python-Rush\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24631DD5-A466-4F64-BB51-1B029FDFD5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F459EB80-75C4-4766-ABD0-61F392B0552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3444" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>English</t>
   </si>
@@ -33,16 +33,370 @@
     <t>Russian</t>
   </si>
   <si>
-    <t xml:space="preserve">hello </t>
-  </si>
-  <si>
-    <t>привет</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t>переживать, беспокоиться</t>
+    <t>get divorced</t>
+  </si>
+  <si>
+    <t>рвзвестись</t>
+  </si>
+  <si>
+    <t>расставаться</t>
+  </si>
+  <si>
+    <t>to boast</t>
+  </si>
+  <si>
+    <t>хвастаться</t>
+  </si>
+  <si>
+    <t>call off</t>
+  </si>
+  <si>
+    <t>acquaintance</t>
+  </si>
+  <si>
+    <t>знакомство, знакомый</t>
+  </si>
+  <si>
+    <t>выздоравливать</t>
+  </si>
+  <si>
+    <t>accustomed to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">привыкший </t>
+  </si>
+  <si>
+    <t>thoughtful</t>
+  </si>
+  <si>
+    <t>задумчивый</t>
+  </si>
+  <si>
+    <t>стремиться, стараться</t>
+  </si>
+  <si>
+    <t>undertake</t>
+  </si>
+  <si>
+    <t>предприниматься</t>
+  </si>
+  <si>
+    <t>thrilling</t>
+  </si>
+  <si>
+    <t>захватывающий</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>разница</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>кухня</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>ниже</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>выше</t>
+  </si>
+  <si>
+    <t>timetable</t>
+  </si>
+  <si>
+    <t>расписание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">into account </t>
+  </si>
+  <si>
+    <t>принять во внимание</t>
+  </si>
+  <si>
+    <t>reliable</t>
+  </si>
+  <si>
+    <t>надёжный</t>
+  </si>
+  <si>
+    <t>get rid of</t>
+  </si>
+  <si>
+    <t>избавиться</t>
+  </si>
+  <si>
+    <t>supper</t>
+  </si>
+  <si>
+    <t>ужин</t>
+  </si>
+  <si>
+    <t>irregular</t>
+  </si>
+  <si>
+    <t>неправильный, непостоянный</t>
+  </si>
+  <si>
+    <t>rarely</t>
+  </si>
+  <si>
+    <t>seldom</t>
+  </si>
+  <si>
+    <t>редко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to rob </t>
+  </si>
+  <si>
+    <t>грабить</t>
+  </si>
+  <si>
+    <t>amazed by (of)</t>
+  </si>
+  <si>
+    <t>поражённый</t>
+  </si>
+  <si>
+    <t>angry with</t>
+  </si>
+  <si>
+    <t>angry about</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сердиться на (объект), злиться из-за </t>
+  </si>
+  <si>
+    <t xml:space="preserve">сердиться на (человека),  злиться из-за </t>
+  </si>
+  <si>
+    <t xml:space="preserve">by chance </t>
+  </si>
+  <si>
+    <t>случайно</t>
+  </si>
+  <si>
+    <t>находиться дома, в здании</t>
+  </si>
+  <si>
+    <t>преувеличивать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheaper </t>
+  </si>
+  <si>
+    <t>более дешёвой, дешевле</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get close for </t>
+  </si>
+  <si>
+    <t>приближаться к, подобраться</t>
+  </si>
+  <si>
+    <t>lose patience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">терять терпение </t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>эгоистичный</t>
+  </si>
+  <si>
+    <t>irritation</t>
+  </si>
+  <si>
+    <t>раздражение</t>
+  </si>
+  <si>
+    <t>affirmative</t>
+  </si>
+  <si>
+    <t>утвердительный</t>
+  </si>
+  <si>
+    <t>impatience</t>
+  </si>
+  <si>
+    <t>нетерпение</t>
+  </si>
+  <si>
+    <t>come across</t>
+  </si>
+  <si>
+    <t>встретиться, пересечься</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let down </t>
+  </si>
+  <si>
+    <t>подводить</t>
+  </si>
+  <si>
+    <t>frankly</t>
+  </si>
+  <si>
+    <t>откровенно, честно</t>
+  </si>
+  <si>
+    <t>сокращать, укоротить</t>
+  </si>
+  <si>
+    <t>удлинить</t>
+  </si>
+  <si>
+    <t>предписать, прописывать</t>
+  </si>
+  <si>
+    <t>заметить</t>
+  </si>
+  <si>
+    <t>состоять из</t>
+  </si>
+  <si>
+    <t>feel free to contact me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">не стесняйся обращаться </t>
+  </si>
+  <si>
+    <t>to pretent</t>
+  </si>
+  <si>
+    <t>притворяться</t>
+  </si>
+  <si>
+    <t>sincere</t>
+  </si>
+  <si>
+    <t>искренний</t>
+  </si>
+  <si>
+    <t>to digest</t>
+  </si>
+  <si>
+    <t>переварить (информацию)</t>
+  </si>
+  <si>
+    <t>to consist of</t>
+  </si>
+  <si>
+    <t>to point out</t>
+  </si>
+  <si>
+    <t>to prescribe</t>
+  </si>
+  <si>
+    <t>to shorten</t>
+  </si>
+  <si>
+    <t>to lengthen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to exaggerate </t>
+  </si>
+  <si>
+    <t>to stay at</t>
+  </si>
+  <si>
+    <t>to strive</t>
+  </si>
+  <si>
+    <t>to recover</t>
+  </si>
+  <si>
+    <t>отменить</t>
+  </si>
+  <si>
+    <t>to brake up</t>
+  </si>
+  <si>
+    <t>to split up</t>
+  </si>
+  <si>
+    <t>needy</t>
+  </si>
+  <si>
+    <t>нуждающийся</t>
+  </si>
+  <si>
+    <t>humiliate</t>
+  </si>
+  <si>
+    <t>унижать</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all the pros and cons </t>
+  </si>
+  <si>
+    <t>все за и против, все плюсы и минусы</t>
+  </si>
+  <si>
+    <t>isolated</t>
+  </si>
+  <si>
+    <t>изолированный, оторванный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fill in </t>
+  </si>
+  <si>
+    <t>заполнить форму</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to leave </t>
+  </si>
+  <si>
+    <t>забыть (ключи)</t>
+  </si>
+  <si>
+    <t>to idealize</t>
+  </si>
+  <si>
+    <t>идеализировать</t>
+  </si>
+  <si>
+    <t>move to</t>
+  </si>
+  <si>
+    <t>переехать</t>
+  </si>
+  <si>
+    <t>mustache</t>
+  </si>
+  <si>
+    <t>усы</t>
+  </si>
+  <si>
+    <t>boils at</t>
+  </si>
+  <si>
+    <t>кипит при (температуре)</t>
+  </si>
+  <si>
+    <t>shake hands</t>
+  </si>
+  <si>
+    <t>пожать руки</t>
+  </si>
+  <si>
+    <t>to quarrel</t>
+  </si>
+  <si>
+    <t>ссориться</t>
   </si>
 </sst>
 </file>
@@ -360,13 +714,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C5"/>
+  <dimension ref="B3:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="30.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -386,13 +743,494 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>